--- a/medicine/Sexualité et sexologie/Comportement_sexuel/Comportement_sexuel.xlsx
+++ b/medicine/Sexualité et sexologie/Comportement_sexuel/Comportement_sexuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le comportement sexuel permet la reproduction des espèces animales sexuées. Ce comportement change d'une espèce à l'autre (annélides, insectes, poissons, oiseaux, mammifères…), en raison des différences de l'organisation du corps et du système nerveux. La morphologie du corps et surtout l'organisation du système nerveux déterminent les caractéristiques du comportement sexuel.
-De nombreux facteurs, à différents niveaux, interviennent dans la dynamique du comportement sexuel : l'évolution (sélection naturelle, sélection sexuelle, hasard…), l'environnement (ressources, climat…), des facteurs biologiques (gènes, hormones, complexité du système nerveux…), des facteurs sociaux (taille et hiérarchie du groupe…) et des facteurs culturels[1].
+De nombreux facteurs, à différents niveaux, interviennent dans la dynamique du comportement sexuel : l'évolution (sélection naturelle, sélection sexuelle, hasard…), l'environnement (ressources, climat…), des facteurs biologiques (gènes, hormones, complexité du système nerveux…), des facteurs sociaux (taille et hiérarchie du groupe…) et des facteurs culturels.
 Chez la plupart des animaux, il existe un comportement de reproduction : le but des activités sexuelles est la copulation.
-Mais chez les primates et l'être humain, plusieurs facteurs biologiques qui contrôlent ce comportement de reproduction ont été modifiés au cours de l'évolution[2]. Pour ces raisons, il existe aussi un comportement érotique : le but des activités sexuelles est la stimulation du corps et des zones érogènes. En simplifiant, les hominidés recherchent les activités sexuelles car elles procurent des plaisirs érotiques intenses.
+Mais chez les primates et l'être humain, plusieurs facteurs biologiques qui contrôlent ce comportement de reproduction ont été modifiés au cours de l'évolution. Pour ces raisons, il existe aussi un comportement érotique : le but des activités sexuelles est la stimulation du corps et des zones érogènes. En simplifiant, les hominidés recherchent les activités sexuelles car elles procurent des plaisirs érotiques intenses.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description des facteurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le comportement sexuel dépend de nombreux facteurs :
 Les facteurs du passé :
@@ -552,16 +566,52 @@
           <t>Facteurs biologiques à l'origine des comportements sexuels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dynamique des comportements (sexuels ou autres) est déterminée par un ensemble d'éléments en interaction :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La dynamique des comportements (sexuels ou autres) est déterminée par un ensemble d'éléments en interaction :
 des signaux ;
 des récepteurs ;
 des centres de traitements ;
 des effecteurs ;
-des régulateurs.
-Récepteurs
-La réalisation du comportement sexuel nécessite des signaux échangés par les partenaires.
+des régulateurs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Facteurs biologiques à l'origine des comportements sexuels</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Récepteurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La réalisation du comportement sexuel nécessite des signaux échangés par les partenaires.
 Les récepteurs qui détectent ces signaux peuvent avoir différentes caractéristiques :
 caractéristiques structurelles :
 récepteur simple, constitué par une molécule ou une cellule ;
@@ -571,51 +621,191 @@
 récepteur non spécifique, détecte un large spectre de signaux.
 contrôle des récepteurs :
 récepteur continu, les signaux sont perçus continuellement ;
-récepteur périodique, le signal ne peut être détecté qu'en période d'activité du récepteur.
-Centres de traitements
-Le centre de traitement est le facteur le plus critique du comportement sexuel.
+récepteur périodique, le signal ne peut être détecté qu'en période d'activité du récepteur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Facteurs biologiques à l'origine des comportements sexuels</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Centres de traitements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le centre de traitement est le facteur le plus critique du comportement sexuel.
 Les centres de traitement qui reçoivent les signaux peuvent avoir différentes caractéristiques :
 le nombre de neurones entre le récepteur et l'effecteur : plus le nombre est grand, plus le traitement de l'information est complexe, et moins la réponse est stéréotypée ;
 le nombre de neurones modulateurs connectés sur les neurones situés entre le récepteur et l'effecteur. Plus le nombre de neurones modulateurs est grand, plus la modulation de l'information est complexe ;
-l'existence de circuits spécialisés pour le traitement des informations sexuelles.
-Effecteurs
-Les effecteurs biologiques sont constitués de cellules, de tissus ou d'organes, qui peuvent être spécialisés ou non. Ils servent soit à émettre des signaux sexuels, soit à réaliser le comportement sexuel.
-Signaux
-Les signaux sexuels chimiques, dissous ou volatil (exemple des phéromones), sont les plus utilisés chez les animaux. Ils permettent l'échange, par le contact physique ou à distance, d'informations sexuelles simples. Les signaux sexuels visuels ou vocaux sont des signaux qui permettent l'échange, souvent à distance, d'informations sexuelles qui peuvent être très complexes.
-Régulateurs
-Les régulateurs du comportement sexuel sont génétiques chez les organismes pluricellulaires, hormonaux chez vertébrés, et principalement neuraux chez les hominidés.
+l'existence de circuits spécialisés pour le traitement des informations sexuelles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Facteurs biologiques à l'origine des comportements sexuels</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Effecteurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effecteurs biologiques sont constitués de cellules, de tissus ou d'organes, qui peuvent être spécialisés ou non. Ils servent soit à émettre des signaux sexuels, soit à réaliser le comportement sexuel.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Comportement_sexuel</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Comportement_sexuel</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Facteurs biologiques à l'origine des comportements sexuels</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Signaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les signaux sexuels chimiques, dissous ou volatil (exemple des phéromones), sont les plus utilisés chez les animaux. Ils permettent l'échange, par le contact physique ou à distance, d'informations sexuelles simples. Les signaux sexuels visuels ou vocaux sont des signaux qui permettent l'échange, souvent à distance, d'informations sexuelles qui peuvent être très complexes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Facteurs biologiques à l'origine des comportements sexuels</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Régulateurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les régulateurs du comportement sexuel sont génétiques chez les organismes pluricellulaires, hormonaux chez vertébrés, et principalement neuraux chez les hominidés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Facteurs sociaux influençant les comportements sexuels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans un groupe social, le comportement sexuel dépend de l'organisation du groupe (petit ou grand groupe, harem…) et des hiérarchies existant dans ce groupe (femelle ou mâle dominants…). Toutes ces caractéristiques vont déterminer le choix des partenaires, et parfois les individus qui pourront s'accoupler[3].
-Les principaux facteurs sociaux qui influencent le comportement sexuel sont[3] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans un groupe social, le comportement sexuel dépend de l'organisation du groupe (petit ou grand groupe, harem…) et des hiérarchies existant dans ce groupe (femelle ou mâle dominants…). Toutes ces caractéristiques vont déterminer le choix des partenaires, et parfois les individus qui pourront s'accoupler.
+Les principaux facteurs sociaux qui influencent le comportement sexuel sont :
 La taille du groupe, avec des petits ou des grands groupes.
 La hiérarchie sociale, avec des femelles ou des mâles dominants.
 La monogamie, la polygamie (harem), avec une compétition pour les femelles, ou la promiscuité sexuelle.
@@ -627,43 +817,125 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Comportement_sexuel</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Comportement_sexuel</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Description du comportement sexuel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mammifères
-Chez les mammifères, le comportement sexuel est contrôlé par cinq principaux facteurs biologiques innés :
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Chez les mammifères, le comportement sexuel est contrôlé par cinq principaux facteurs biologiques innés :
 Hormones : des molécules qui circulent dans l'organisme afin de préparer, d'activer ou d'inhiber les organes et les circuits sexuels.
 Phéromones : des molécules qui transmettent des signaux et des informations entre les mâles et les femelles.
 Réflexes sexuels : des circuits neurobiologiques précablés qui contrôlent la copulation (lubrification vaginale, lordose ; érection, éjaculation…).
 Renforcements / récompenses : système connecté en particulier aux zones érogènes primaires (pénis et clitoris), et à l'origine des apprentissages sexuels.
-Cognition : chez les mammifères non-primates, la cognition permet surtout d'optimiser la copulation.
-Mammifères non-primates
-Chez les mammifères inférieurs, le comportement de reproduction est un comportement fondamental qui permet la reproduction et donc la survie de l'espèce. Il permet, au cours de la copulation, de transmettre les spermatozoïdes de l'urètre du mâle au vagin de la femelle, ce qui permet la fécondation des gamètes et la reproduction. Les hormones et les phéromones sont les principaux facteurs qui contrôlent le comportement de reproduction.
-Hominidés
-Chez l'être humain (et le Chimpanzé, le Bonobo, l'Orang outan et le Dauphin), le comportement sexuel n'est plus un comportement de reproduction, mais devient un comportement érotique[4]. Au cours de l'évolution, l'importance et l'influence des hormones[5] et des phéromones[6],[7] sur le comportement sexuel a diminué. Au contraire, l'importance des récompenses est devenue majeure[8]. Pour ces raisons, chez l'être humain, le comportement sexuel n'est plus organisé pour la copulation, mais pour la recherche des plaisirs érotiques, procurés par la stimulation du corps et des zones érogènes. Le coït vaginal (qui permet la fécondation et donc la reproduction) devient une activité érotique principalement apprise et préférée. Comme chez les Bonobos, la reproduction devient une conséquence indirecte des diverses activités érotiques[9].
+Cognition : chez les mammifères non-primates, la cognition permet surtout d'optimiser la copulation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Description du comportement sexuel</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Mammifères non-primates</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les mammifères inférieurs, le comportement de reproduction est un comportement fondamental qui permet la reproduction et donc la survie de l'espèce. Il permet, au cours de la copulation, de transmettre les spermatozoïdes de l'urètre du mâle au vagin de la femelle, ce qui permet la fécondation des gamètes et la reproduction. Les hormones et les phéromones sont les principaux facteurs qui contrôlent le comportement de reproduction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comportement_sexuel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Description du comportement sexuel</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hominidés</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'être humain (et le Chimpanzé, le Bonobo, l'Orang outan et le Dauphin), le comportement sexuel n'est plus un comportement de reproduction, mais devient un comportement érotique. Au cours de l'évolution, l'importance et l'influence des hormones et des phéromones, sur le comportement sexuel a diminué. Au contraire, l'importance des récompenses est devenue majeure. Pour ces raisons, chez l'être humain, le comportement sexuel n'est plus organisé pour la copulation, mais pour la recherche des plaisirs érotiques, procurés par la stimulation du corps et des zones érogènes. Le coït vaginal (qui permet la fécondation et donc la reproduction) devient une activité érotique principalement apprise et préférée. Comme chez les Bonobos, la reproduction devient une conséquence indirecte des diverses activités érotiques.
 </t>
         </is>
       </c>
